--- a/Design/DateTable/client_tower_status_info.xlsx
+++ b/Design/DateTable/client_tower_status_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sub\SProjectDesign\Client\SProject\Content\DataTable\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05ECC5-3F38-4B04-A357-39EC001E3B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721456D2-72AF-4B9F-8127-4B895E251C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -546,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/DateTable/client_tower_status_info.xlsx
+++ b/Design/DateTable/client_tower_status_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721456D2-72AF-4B9F-8127-4B895E251C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD1D5F8-9715-4A09-8F06-8BC7ED64BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +140,14 @@
   </si>
   <si>
     <t>;INDEX 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NomalAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="A5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,15 +565,15 @@
     <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -574,31 +593,31 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -643,6 +662,409 @@
       </c>
       <c r="N2" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <f>ROUND(I3*1.1,0)</f>
+        <v>330</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="0">ROUND(I4*1.1,0)</f>
+        <v>363</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:H12" si="1">ROUND(G5*1.1,0)</f>
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>483</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>642</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/DateTable/client_tower_status_info.xlsx
+++ b/Design/DateTable/client_tower_status_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD1D5F8-9715-4A09-8F06-8BC7ED64BF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5E768-34D7-4FC6-8118-07ABDEE8AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>NomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격 타워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,26 +570,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="A5:K7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -687,10 +705,10 @@
         <v>50</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>999999</v>
       </c>
       <c r="I3">
-        <v>300</v>
+        <v>999999</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -699,7 +717,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -725,11 +746,10 @@
         <v>55</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>999999</v>
       </c>
       <c r="I4">
-        <f>ROUND(I3*1.1,0)</f>
-        <v>330</v>
+        <v>999999</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -738,7 +758,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -764,11 +787,10 @@
         <v>60</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>999999</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I12" si="0">ROUND(I4*1.1,0)</f>
-        <v>363</v>
+        <v>999999</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -777,7 +799,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -800,16 +825,14 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:H12" si="1">ROUND(G5*1.1,0)</f>
+        <f t="shared" ref="G6:H12" si="0">ROUND(G5*1.1,0)</f>
         <v>66</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <v>999999</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>399</v>
+        <v>999999</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -818,7 +841,10 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -841,16 +867,14 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <v>999999</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>439</v>
+        <v>999999</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -859,7 +883,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -882,16 +909,14 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <v>999999</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>483</v>
+        <v>999999</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -900,7 +925,10 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -923,25 +951,26 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <v>999999</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>531</v>
+        <v>999999</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -964,25 +993,26 @@
         <v>30</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <v>999999</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>584</v>
+        <v>999999</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1005,25 +1035,26 @@
         <v>30</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>999999</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>642</v>
+        <v>999999</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1046,25 +1077,964 @@
         <v>30</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="H12">
+        <v>999999</v>
+      </c>
+      <c r="I12">
+        <v>999999</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>B3+100</f>
+        <v>201</v>
+      </c>
+      <c r="C13">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>999999</v>
+      </c>
+      <c r="I13">
+        <v>999999</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B32" si="1">B4+100</f>
+        <v>201</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C32" si="2">C4</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:I14" si="3">ROUND(G13*1.1,0)</f>
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>999999</v>
+      </c>
+      <c r="I14">
+        <v>999999</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="H12">
+        <v>201</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:I15" si="4">ROUND(G14*1.1,0)</f>
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>999999</v>
+      </c>
+      <c r="I15">
+        <v>999999</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>706</v>
-      </c>
-      <c r="J12">
+        <v>201</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:H16" si="5">ROUND(G15*1.1,0)</f>
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>999999</v>
+      </c>
+      <c r="I16">
+        <v>999999</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(G16*1.1,0)</f>
+        <v>58</v>
+      </c>
+      <c r="H17">
+        <v>999999</v>
+      </c>
+      <c r="I17">
+        <v>999999</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:H18" si="6">ROUND(G17*1.1,0)</f>
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>999999</v>
+      </c>
+      <c r="I18">
+        <v>999999</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:H19" si="7">ROUND(G18*1.1,0)</f>
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>999999</v>
+      </c>
+      <c r="I19">
+        <v>999999</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:H20" si="8">ROUND(G19*1.1,0)</f>
+        <v>77</v>
+      </c>
+      <c r="H20">
+        <v>999999</v>
+      </c>
+      <c r="I20">
+        <v>999999</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:H21" si="9">ROUND(G20*1.1,0)</f>
+        <v>85</v>
+      </c>
+      <c r="H21">
+        <v>999999</v>
+      </c>
+      <c r="I21">
+        <v>999999</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:H22" si="10">ROUND(G21*1.1,0)</f>
+        <v>94</v>
+      </c>
+      <c r="H22">
+        <v>999999</v>
+      </c>
+      <c r="I22">
+        <v>999999</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>999999</v>
+      </c>
+      <c r="I23">
+        <v>999999</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>999999</v>
+      </c>
+      <c r="I24">
+        <v>999999</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>999999</v>
+      </c>
+      <c r="I25">
+        <v>999999</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:H26" si="13">ROUND(G25*1.1,0)</f>
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>999999</v>
+      </c>
+      <c r="I26">
+        <v>999999</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:H27" si="14">ROUND(G26*1.1,0)</f>
+        <v>44</v>
+      </c>
+      <c r="H27">
+        <v>999999</v>
+      </c>
+      <c r="I27">
+        <v>999999</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:H28" si="15">ROUND(G27*1.1,0)</f>
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>999999</v>
+      </c>
+      <c r="I28">
+        <v>999999</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:H29" si="16">ROUND(G28*1.1,0)</f>
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>999999</v>
+      </c>
+      <c r="I29">
+        <v>999999</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:H30" si="17">ROUND(G29*1.1,0)</f>
+        <v>58</v>
+      </c>
+      <c r="H30">
+        <v>999999</v>
+      </c>
+      <c r="I30">
+        <v>999999</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:H31" si="18">ROUND(G30*1.1,0)</f>
+        <v>64</v>
+      </c>
+      <c r="H31">
+        <v>999999</v>
+      </c>
+      <c r="I31">
+        <v>999999</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:H32" si="19">ROUND(G31*1.1,0)</f>
+        <v>70</v>
+      </c>
+      <c r="H32">
+        <v>999999</v>
+      </c>
+      <c r="I32">
+        <v>999999</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +2048,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D23" sqref="D23:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
